--- a/专利查询和搜集/已处理/命中数据(简洁).xlsx
+++ b/专利查询和搜集/已处理/命中数据(简洁).xlsx
@@ -109,9 +109,6 @@
     <t>6941698</t>
   </si>
   <si>
-    <t>D647741</t>
-  </si>
-  <si>
     <t>4908982</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
     <t>D871863</t>
   </si>
   <si>
+    <t>6557806</t>
+  </si>
+  <si>
     <t>7596905</t>
   </si>
   <si>
@@ -292,9 +292,6 @@
     <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/41/477/D06/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/82/089/049/1.pdf</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/63/718/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/05/969/075/1.pdf</t>
